--- a/Scenario_BASELINE.xlsx
+++ b/Scenario_BASELINE.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clement.leblanc1\Google Drive\Doctorat\1. Documents de travail\EOLES\pyEOLES_Dispatch\EOLES-Dispatch_PUBLIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clement.leblanc1\Google Drive\Doctorat\1. Documents de travail\EOLES\pyEOLES_Dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" tabRatio="737" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" tabRatio="737" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="thr_specs" sheetId="1" r:id="rId1"/>
-    <sheet name="rsv_req" sheetId="7" r:id="rId2"/>
-    <sheet name="str_vOM" sheetId="10" r:id="rId3"/>
-    <sheet name="capa" sheetId="4" r:id="rId4"/>
-    <sheet name="maxAF" sheetId="5" r:id="rId5"/>
-    <sheet name="yEAF" sheetId="6" r:id="rId6"/>
-    <sheet name="capa_in" sheetId="8" r:id="rId7"/>
-    <sheet name="stockMax" sheetId="9" r:id="rId8"/>
-    <sheet name="links" sheetId="11" r:id="rId9"/>
-    <sheet name="exo_IM" sheetId="14" r:id="rId10"/>
-    <sheet name="exo_EX" sheetId="15" r:id="rId11"/>
-    <sheet name="fuel_timeFactor" sheetId="12" r:id="rId12"/>
-    <sheet name="fuel_areaFactor" sheetId="13" r:id="rId13"/>
+    <sheet name="Légende - Sources" sheetId="3" r:id="rId1"/>
+    <sheet name="thr_specs" sheetId="1" r:id="rId2"/>
+    <sheet name="rsv_req" sheetId="7" r:id="rId3"/>
+    <sheet name="str_vOM" sheetId="10" r:id="rId4"/>
+    <sheet name="capa" sheetId="4" r:id="rId5"/>
+    <sheet name="maxAF" sheetId="5" r:id="rId6"/>
+    <sheet name="yEAF" sheetId="6" r:id="rId7"/>
+    <sheet name="capa_in" sheetId="8" r:id="rId8"/>
+    <sheet name="stockMax" sheetId="9" r:id="rId9"/>
+    <sheet name="links" sheetId="11" r:id="rId10"/>
+    <sheet name="exo_IM" sheetId="14" r:id="rId11"/>
+    <sheet name="exo_EX" sheetId="15" r:id="rId12"/>
+    <sheet name="fuel_timeFactor" sheetId="12" r:id="rId13"/>
+    <sheet name="fuel_areaFactor" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -765,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="73">
   <si>
     <t>fuel_price</t>
   </si>
@@ -821,6 +822,27 @@
     <t>FR</t>
   </si>
   <si>
+    <t>Source = ENTSOE</t>
+  </si>
+  <si>
+    <t>Source = METIS</t>
+  </si>
+  <si>
+    <t>Source = Hyp Behrang</t>
+  </si>
+  <si>
+    <t>Guess based on historical data</t>
+  </si>
+  <si>
+    <t>Remarks / To solve</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Source = TYNDP (2018 + fuel prices updated on TYNDP2020)</t>
+  </si>
+  <si>
     <t>BE</t>
   </si>
   <si>
@@ -899,6 +921,9 @@
     <t>DE</t>
   </si>
   <si>
+    <t>No color -&gt; see scenario description</t>
+  </si>
+  <si>
     <t>importer</t>
   </si>
   <si>
@@ -933,6 +958,12 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>Handpicked plant by plant, then adjusted to fit observed price in 2019</t>
+  </si>
+  <si>
+    <t>Nuclear capacity in DE and UK is the maximum production over 2015-2019, which is significantly higher than the remaining capacity in 2019. This is at the moment necessary to obtain a consistent production since nuclear availability factors are computed on this basis to ensure it remains below 1. Should be fixed, espacially if nuclear remains in projection for germany</t>
   </si>
   <si>
     <t>coal_SA</t>
@@ -1006,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,7 +1058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,6 +1089,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,6 +1122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1086,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1094,19 +1149,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,6 +1234,75 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019925" y="276225"/>
+          <a:ext cx="1362075" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>1st and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> last percentile of observed trade</a:t>
+          </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1446,493 +1574,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F3" s="3">
-        <v>94</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3">
-        <v>69.69</v>
-      </c>
-      <c r="J3" s="3">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="E4" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F4" s="3">
-        <v>94</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3">
-        <v>42.29</v>
-      </c>
-      <c r="J4" s="3">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="E5" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F5" s="3">
-        <v>101</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3">
-        <v>50.12</v>
-      </c>
-      <c r="J5" s="3">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="E6" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F6" s="3">
-        <v>57</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H6" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="I6" s="3">
-        <v>72.83</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="E7" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F7" s="3">
-        <v>57</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="I7" s="3">
-        <v>43.07</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="E8" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F8" s="3">
-        <v>57</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>25.06</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="M8" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="E9" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F9" s="3">
-        <v>57</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H9" s="3">
+        <v>29</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="16">
         <v>0.2</v>
       </c>
-      <c r="I9" s="3">
-        <v>20.36</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="E10" s="3">
-        <v>24.75</v>
-      </c>
-      <c r="F10" s="3">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="I10" s="3">
-        <v>36</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>41</v>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -1944,626 +1887,306 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1.9</v>
       </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>3.1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="19">
         <v>0.5</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="19">
         <v>0.5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="19">
         <v>0.5</v>
       </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
         <v>0.7</v>
       </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
+        <v>28</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
         <v>0.8</v>
       </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
         <v>0.1</v>
       </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
         <v>0.8</v>
       </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
         <v>3</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
+        <v>29</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
         <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>1.8</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>2</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2574,9 +2197,329 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>1.8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D61"/>
     </sheetView>
   </sheetViews>
@@ -2584,25 +2527,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3990,11 +3933,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4002,185 +3945,185 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>-0.5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
+        <v>50</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
+        <v>27</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>1.2</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
         <v>0.65</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
+        <v>29</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4190,6 +4133,493 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F3" s="3">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>69.69</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="E4" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F4" s="3">
+        <v>94</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3">
+        <v>42.29</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F5" s="3">
+        <v>101</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3">
+        <v>50.12</v>
+      </c>
+      <c r="J5" s="3">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F6" s="3">
+        <v>57</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>72.83</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F7" s="3">
+        <v>57</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>43.07</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F8" s="3">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>25.06</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M8" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F9" s="3">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>20.36</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24.75</v>
+      </c>
+      <c r="F10" s="3">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="I10" s="3">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4202,41 +4632,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4245,7 +4675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4257,33 +4687,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
         <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
         <v>5.444</v>
       </c>
     </row>
@@ -4292,12 +4722,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,136 +4737,136 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="D2" s="11">
-        <v>10.516999999999999</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1.548</v>
+      </c>
+      <c r="D2" s="14">
+        <v>9.6289999999999996</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <v>6.09</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="11">
-        <v>14.529</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1.4990000000000001</v>
-      </c>
-      <c r="D3" s="11">
-        <v>61.133000000000003</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="11">
-        <v>11.452</v>
-      </c>
-      <c r="G3" s="11">
-        <v>21.908000000000001</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14">
+        <v>14.551</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="14">
+        <v>55.972999999999999</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>11.15</v>
+      </c>
+      <c r="G3" s="14">
+        <v>21.545000000000002</v>
+      </c>
+      <c r="H3" s="14">
         <v>10.47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11">
-        <v>9.1010000000000009</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3.1429999999999998</v>
-      </c>
-      <c r="D4" s="11">
-        <v>39.536999999999999</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="14">
+        <v>9.1579999999999995</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="D4" s="14">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="E4" s="14">
         <v>0.313</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="14">
         <v>17.094000000000001</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="14">
         <v>9.52</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="14">
         <v>11.872999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11">
-        <v>9.7590000000000003</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3.9950000000000001</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9.7509999999999994</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4.0209999999999999</v>
+      </c>
+      <c r="E5" s="14">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <v>10.441000000000001</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <v>2</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>1.885</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
@@ -4462,7 +4892,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
@@ -4477,10 +4907,10 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="20">
         <v>3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="20">
         <v>8.1829999999999998</v>
       </c>
       <c r="H7" s="2">
@@ -4488,8 +4918,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>56</v>
+      <c r="A8" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -4503,10 +4933,10 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="20">
         <v>1.851</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="20">
         <v>1.5</v>
       </c>
       <c r="H8" s="2">
@@ -4514,8 +4944,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>57</v>
+      <c r="A9" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -4540,13 +4970,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>3.161</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="20">
         <v>0.76</v>
       </c>
       <c r="D10" s="2">
@@ -4555,10 +4985,10 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="20">
         <v>21</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="20">
         <v>9</v>
       </c>
       <c r="H10" s="2">
@@ -4566,13 +4996,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="20">
         <v>3.5</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>1.2</v>
       </c>
       <c r="D11" s="2">
@@ -4581,10 +5011,10 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="20">
         <v>9</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="20">
         <v>10</v>
       </c>
       <c r="H11" s="2">
@@ -4592,13 +5022,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="20">
         <v>4.5</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
       <c r="D12" s="2">
@@ -4607,10 +5037,10 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="20">
         <v>10.555</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="20">
         <v>7.25</v>
       </c>
       <c r="H12" s="2">
@@ -4618,13 +5048,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="22">
         <v>1.03</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="20">
         <v>1.6859999999999999</v>
       </c>
       <c r="D13" s="2">
@@ -4633,10 +5063,10 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="22">
         <v>5.766</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="22">
         <v>1.6319999999999999</v>
       </c>
       <c r="H13" s="2">
@@ -4644,106 +5074,106 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>3.4009999999999998</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>4.3559999999999999</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>1.4930000000000001</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>0.76900000000000002</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
         <v>1.21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11">
-        <v>13.302</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="14">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
         <v>10.72</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="14">
         <v>12.06</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="14">
         <v>11.430999999999999</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="14">
         <v>24.791</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="14">
         <v>2.8149999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4754,7 +5184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -4769,32 +5199,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -4820,7 +5250,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3">
@@ -4846,8 +5276,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>56</v>
+      <c r="A4" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0.95</v>
@@ -4872,8 +5302,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>57</v>
+      <c r="A5" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -4898,7 +5328,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B6">
@@ -4924,7 +5354,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B7">
@@ -4950,7 +5380,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B8">
@@ -4976,7 +5406,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B9">
@@ -5002,7 +5432,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
@@ -5032,12 +5462,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,32 +5477,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -5098,11 +5528,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -5124,11 +5554,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>56</v>
+      <c r="A4" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C4">
         <v>0.05</v>
@@ -5150,8 +5580,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>57</v>
+      <c r="A5" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0.93</v>
@@ -5176,7 +5606,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B6">
@@ -5202,7 +5632,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B7">
@@ -5228,7 +5658,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B8">
@@ -5254,33 +5684,33 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="14">
         <v>0.96</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="14">
         <v>0.96</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="14">
         <v>0.96</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <v>0.96</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="14">
         <v>0.96</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <v>0.96</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="14">
         <v>0.96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
@@ -5310,12 +5740,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5325,105 +5755,105 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
+      <c r="A2" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="D2" s="11">
-        <v>9.4220000000000006</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="G2" s="11">
+        <v>7.7720000000000002</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>10.236000000000001</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>5.5149999999999997</v>
+      </c>
+      <c r="G2" s="14">
         <v>5.6449999999999996</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
+      <c r="A3" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
+      <c r="A4" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
         <v>0</v>
       </c>
     </row>
@@ -5432,7 +5862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -5447,33 +5877,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
+      <c r="A2" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B2">
         <v>3.1</v>
@@ -5498,8 +5928,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
+      <c r="A3" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5524,8 +5954,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
+      <c r="A4" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5552,229 +5982,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="14">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="F2" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>2.4</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>